--- a/configs/羽翼系统.xlsx
+++ b/configs/羽翼系统.xlsx
@@ -1131,8 +1131,8 @@
   <sheetPr/>
   <dimension ref="A1:S107"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="D111" sqref="D111"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="M30" sqref="M30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1459,6 +1459,9 @@
       <c r="C7" t="s">
         <v>40</v>
       </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
       <c r="E7">
         <v>130001</v>
       </c>
@@ -1471,12 +1474,8 @@
       <c r="H7">
         <v>15</v>
       </c>
-      <c r="I7">
-        <v>132003</v>
-      </c>
-      <c r="J7">
-        <v>20</v>
-      </c>
+      <c r="I7"/>
+      <c r="J7"/>
       <c r="K7" t="s">
         <v>41</v>
       </c>
@@ -1512,6 +1511,9 @@
       <c r="C8" t="s">
         <v>43</v>
       </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
       <c r="E8">
         <v>130004</v>
       </c>
@@ -1559,6 +1561,9 @@
       <c r="C9" t="s">
         <v>46</v>
       </c>
+      <c r="D9">
+        <v>2</v>
+      </c>
       <c r="E9">
         <v>130006</v>
       </c>
@@ -1571,12 +1576,8 @@
       <c r="H9">
         <v>15</v>
       </c>
-      <c r="I9">
-        <v>132008</v>
-      </c>
-      <c r="J9">
-        <v>20</v>
-      </c>
+      <c r="I9"/>
+      <c r="J9"/>
       <c r="K9" t="s">
         <v>47</v>
       </c>
@@ -1612,6 +1613,9 @@
       <c r="C10" t="s">
         <v>46</v>
       </c>
+      <c r="D10">
+        <v>2</v>
+      </c>
       <c r="E10">
         <v>130006</v>
       </c>
@@ -1624,12 +1628,8 @@
       <c r="H10">
         <v>15</v>
       </c>
-      <c r="I10">
-        <v>132008</v>
-      </c>
-      <c r="J10">
-        <v>20</v>
-      </c>
+      <c r="I10"/>
+      <c r="J10"/>
       <c r="K10" t="s">
         <v>47</v>
       </c>
@@ -1665,6 +1665,9 @@
       <c r="C11" t="s">
         <v>46</v>
       </c>
+      <c r="D11">
+        <v>2</v>
+      </c>
       <c r="E11">
         <v>130006</v>
       </c>
@@ -1677,12 +1680,8 @@
       <c r="H11">
         <v>15</v>
       </c>
-      <c r="I11">
-        <v>132008</v>
-      </c>
-      <c r="J11">
-        <v>20</v>
-      </c>
+      <c r="I11"/>
+      <c r="J11"/>
       <c r="K11" t="s">
         <v>47</v>
       </c>
@@ -1718,6 +1717,9 @@
       <c r="C12" t="s">
         <v>46</v>
       </c>
+      <c r="D12">
+        <v>2</v>
+      </c>
       <c r="E12">
         <v>130006</v>
       </c>
@@ -1730,12 +1732,8 @@
       <c r="H12">
         <v>15</v>
       </c>
-      <c r="I12">
-        <v>132008</v>
-      </c>
-      <c r="J12">
-        <v>20</v>
-      </c>
+      <c r="I12"/>
+      <c r="J12"/>
       <c r="K12" t="s">
         <v>47</v>
       </c>
@@ -1771,6 +1769,9 @@
       <c r="C13" t="s">
         <v>46</v>
       </c>
+      <c r="D13">
+        <v>2</v>
+      </c>
       <c r="E13">
         <v>130006</v>
       </c>
@@ -1783,12 +1784,8 @@
       <c r="H13">
         <v>15</v>
       </c>
-      <c r="I13">
-        <v>132008</v>
-      </c>
-      <c r="J13">
-        <v>20</v>
-      </c>
+      <c r="I13"/>
+      <c r="J13"/>
       <c r="K13" t="s">
         <v>47</v>
       </c>
@@ -1824,6 +1821,9 @@
       <c r="C14" t="s">
         <v>46</v>
       </c>
+      <c r="D14">
+        <v>2</v>
+      </c>
       <c r="E14">
         <v>130006</v>
       </c>
@@ -1836,12 +1836,8 @@
       <c r="H14">
         <v>15</v>
       </c>
-      <c r="I14">
-        <v>132008</v>
-      </c>
-      <c r="J14">
-        <v>20</v>
-      </c>
+      <c r="I14"/>
+      <c r="J14"/>
       <c r="K14" t="s">
         <v>47</v>
       </c>
@@ -1877,6 +1873,9 @@
       <c r="C15" t="s">
         <v>46</v>
       </c>
+      <c r="D15">
+        <v>2</v>
+      </c>
       <c r="E15">
         <v>130006</v>
       </c>
@@ -1889,12 +1888,8 @@
       <c r="H15">
         <v>15</v>
       </c>
-      <c r="I15">
-        <v>132008</v>
-      </c>
-      <c r="J15">
-        <v>20</v>
-      </c>
+      <c r="I15"/>
+      <c r="J15"/>
       <c r="K15" t="s">
         <v>47</v>
       </c>
@@ -1930,6 +1925,9 @@
       <c r="C16" t="s">
         <v>46</v>
       </c>
+      <c r="D16">
+        <v>2</v>
+      </c>
       <c r="E16">
         <v>130006</v>
       </c>
@@ -1942,12 +1940,8 @@
       <c r="H16">
         <v>15</v>
       </c>
-      <c r="I16">
-        <v>132008</v>
-      </c>
-      <c r="J16">
-        <v>20</v>
-      </c>
+      <c r="I16"/>
+      <c r="J16"/>
       <c r="K16" t="s">
         <v>47</v>
       </c>
@@ -1983,6 +1977,9 @@
       <c r="C17" t="s">
         <v>46</v>
       </c>
+      <c r="D17">
+        <v>2</v>
+      </c>
       <c r="E17">
         <v>130006</v>
       </c>
@@ -1995,12 +1992,8 @@
       <c r="H17">
         <v>15</v>
       </c>
-      <c r="I17">
-        <v>132008</v>
-      </c>
-      <c r="J17">
-        <v>20</v>
-      </c>
+      <c r="I17"/>
+      <c r="J17"/>
       <c r="K17" t="s">
         <v>47</v>
       </c>
@@ -2036,6 +2029,9 @@
       <c r="C18" t="s">
         <v>46</v>
       </c>
+      <c r="D18">
+        <v>2</v>
+      </c>
       <c r="E18">
         <v>130006</v>
       </c>
@@ -2048,12 +2044,8 @@
       <c r="H18">
         <v>15</v>
       </c>
-      <c r="I18">
-        <v>132008</v>
-      </c>
-      <c r="J18">
-        <v>20</v>
-      </c>
+      <c r="I18"/>
+      <c r="J18"/>
       <c r="K18" t="s">
         <v>47</v>
       </c>
@@ -2089,6 +2081,9 @@
       <c r="C19" t="s">
         <v>46</v>
       </c>
+      <c r="D19">
+        <v>2</v>
+      </c>
       <c r="E19">
         <v>130006</v>
       </c>
@@ -2101,12 +2096,8 @@
       <c r="H19">
         <v>15</v>
       </c>
-      <c r="I19">
-        <v>132008</v>
-      </c>
-      <c r="J19">
-        <v>20</v>
-      </c>
+      <c r="I19"/>
+      <c r="J19"/>
       <c r="K19" t="s">
         <v>47</v>
       </c>
@@ -2142,6 +2133,9 @@
       <c r="C20" t="s">
         <v>46</v>
       </c>
+      <c r="D20">
+        <v>2</v>
+      </c>
       <c r="E20">
         <v>130006</v>
       </c>
@@ -2154,12 +2148,8 @@
       <c r="H20">
         <v>15</v>
       </c>
-      <c r="I20">
-        <v>132008</v>
-      </c>
-      <c r="J20">
-        <v>20</v>
-      </c>
+      <c r="I20"/>
+      <c r="J20"/>
       <c r="K20" t="s">
         <v>47</v>
       </c>
@@ -2195,6 +2185,9 @@
       <c r="C21" t="s">
         <v>46</v>
       </c>
+      <c r="D21">
+        <v>2</v>
+      </c>
       <c r="E21">
         <v>130006</v>
       </c>
@@ -2207,12 +2200,8 @@
       <c r="H21">
         <v>15</v>
       </c>
-      <c r="I21">
-        <v>132008</v>
-      </c>
-      <c r="J21">
-        <v>20</v>
-      </c>
+      <c r="I21"/>
+      <c r="J21"/>
       <c r="K21" t="s">
         <v>47</v>
       </c>
@@ -2248,6 +2237,9 @@
       <c r="C22" t="s">
         <v>46</v>
       </c>
+      <c r="D22">
+        <v>2</v>
+      </c>
       <c r="E22">
         <v>130006</v>
       </c>
@@ -2260,12 +2252,8 @@
       <c r="H22">
         <v>15</v>
       </c>
-      <c r="I22">
-        <v>132008</v>
-      </c>
-      <c r="J22">
-        <v>20</v>
-      </c>
+      <c r="I22"/>
+      <c r="J22"/>
       <c r="K22" t="s">
         <v>47</v>
       </c>
@@ -2301,6 +2289,9 @@
       <c r="C23" t="s">
         <v>46</v>
       </c>
+      <c r="D23">
+        <v>2</v>
+      </c>
       <c r="E23">
         <v>130006</v>
       </c>
@@ -2313,12 +2304,8 @@
       <c r="H23">
         <v>15</v>
       </c>
-      <c r="I23">
-        <v>132008</v>
-      </c>
-      <c r="J23">
-        <v>20</v>
-      </c>
+      <c r="I23"/>
+      <c r="J23"/>
       <c r="K23" t="s">
         <v>47</v>
       </c>
@@ -2354,6 +2341,9 @@
       <c r="C24" t="s">
         <v>46</v>
       </c>
+      <c r="D24">
+        <v>2</v>
+      </c>
       <c r="E24">
         <v>130006</v>
       </c>
@@ -2366,12 +2356,8 @@
       <c r="H24">
         <v>15</v>
       </c>
-      <c r="I24">
-        <v>132008</v>
-      </c>
-      <c r="J24">
-        <v>20</v>
-      </c>
+      <c r="I24"/>
+      <c r="J24"/>
       <c r="K24" t="s">
         <v>47</v>
       </c>
@@ -2407,6 +2393,9 @@
       <c r="C25" t="s">
         <v>46</v>
       </c>
+      <c r="D25">
+        <v>2</v>
+      </c>
       <c r="E25">
         <v>130006</v>
       </c>
@@ -2419,12 +2408,8 @@
       <c r="H25">
         <v>15</v>
       </c>
-      <c r="I25">
-        <v>132008</v>
-      </c>
-      <c r="J25">
-        <v>20</v>
-      </c>
+      <c r="I25"/>
+      <c r="J25"/>
       <c r="K25" t="s">
         <v>47</v>
       </c>
@@ -2460,6 +2445,9 @@
       <c r="C26" t="s">
         <v>46</v>
       </c>
+      <c r="D26">
+        <v>2</v>
+      </c>
       <c r="E26">
         <v>130006</v>
       </c>
@@ -2472,12 +2460,8 @@
       <c r="H26">
         <v>15</v>
       </c>
-      <c r="I26">
-        <v>132008</v>
-      </c>
-      <c r="J26">
-        <v>20</v>
-      </c>
+      <c r="I26"/>
+      <c r="J26"/>
       <c r="K26" t="s">
         <v>47</v>
       </c>

--- a/configs/羽翼系统.xlsx
+++ b/configs/羽翼系统.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="898" uniqueCount="50">
   <si>
     <t>CS</t>
   </si>
@@ -110,6 +110,9 @@
     <t>图片名</t>
   </si>
   <si>
+    <t>Struct_3_2代表有3组数据，每组数据有两个</t>
+  </si>
+  <si>
     <t>初级经验丹id</t>
   </si>
   <si>
@@ -138,6 +141,9 @@
   </si>
   <si>
     <t>其他备注2</t>
+  </si>
+  <si>
+    <t>下面的2代表有2组数据，可替换上面的那个3</t>
   </si>
   <si>
     <t>wingpic1</t>
@@ -1131,14 +1137,14 @@
   <sheetPr/>
   <dimension ref="A1:S107"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="M30" sqref="M30"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="10.6416666666667" customWidth="1"/>
-    <col min="4" max="4" width="12.825" customWidth="1"/>
+    <col min="4" max="4" width="34.8916666666667" customWidth="1"/>
     <col min="5" max="5" width="12.6083333333333" customWidth="1"/>
     <col min="6" max="6" width="13.9083333333333" customWidth="1"/>
     <col min="7" max="7" width="13.5916666666667" customWidth="1"/>
@@ -1389,32 +1395,35 @@
       <c r="C5" t="s">
         <v>29</v>
       </c>
+      <c r="D5" t="s">
+        <v>30</v>
+      </c>
       <c r="E5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H5" t="s">
+        <v>34</v>
+      </c>
+      <c r="I5" t="s">
         <v>33</v>
       </c>
-      <c r="I5" t="s">
-        <v>32</v>
-      </c>
       <c r="J5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="O5" t="s">
         <v>22</v>
@@ -1434,19 +1443,22 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6" t="s">
         <v>38</v>
       </c>
-      <c r="C6" t="s">
-        <v>39</v>
-      </c>
-      <c r="E6" t="s">
-        <v>37</v>
-      </c>
       <c r="F6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -1457,27 +1469,17 @@
         <v>10000</v>
       </c>
       <c r="C7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D7">
-        <v>2</v>
-      </c>
-      <c r="E7">
-        <v>130001</v>
-      </c>
-      <c r="F7">
-        <v>10</v>
-      </c>
-      <c r="G7">
-        <v>131002</v>
-      </c>
-      <c r="H7">
-        <v>15</v>
-      </c>
-      <c r="I7"/>
-      <c r="J7"/>
+        <v>0</v>
+      </c>
+      <c r="E7"/>
+      <c r="F7"/>
+      <c r="G7"/>
+      <c r="H7"/>
       <c r="K7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="L7">
         <v>666</v>
@@ -1495,7 +1497,7 @@
         <v>3</v>
       </c>
       <c r="R7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="S7">
         <v>666</v>
@@ -1509,25 +1511,17 @@
         <v>15000</v>
       </c>
       <c r="C8" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D8">
-        <v>2</v>
-      </c>
-      <c r="E8">
-        <v>130004</v>
-      </c>
-      <c r="F8">
-        <v>10</v>
-      </c>
-      <c r="G8">
-        <v>131005</v>
-      </c>
-      <c r="H8">
-        <v>15</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E8"/>
+      <c r="F8"/>
+      <c r="G8"/>
+      <c r="H8"/>
       <c r="K8" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="L8">
         <v>888</v>
@@ -1545,7 +1539,7 @@
         <v>7</v>
       </c>
       <c r="R8" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="S8">
         <v>667</v>
@@ -1559,10 +1553,10 @@
         <v>20000</v>
       </c>
       <c r="C9" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E9">
         <v>130006</v>
@@ -1570,16 +1564,10 @@
       <c r="F9">
         <v>10</v>
       </c>
-      <c r="G9">
-        <v>131007</v>
-      </c>
-      <c r="H9">
-        <v>15</v>
-      </c>
-      <c r="I9"/>
-      <c r="J9"/>
+      <c r="G9"/>
+      <c r="H9"/>
       <c r="K9" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L9">
         <v>1000</v>
@@ -1611,10 +1599,10 @@
         <v>20000</v>
       </c>
       <c r="C10" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E10">
         <v>130006</v>
@@ -1622,16 +1610,10 @@
       <c r="F10">
         <v>10</v>
       </c>
-      <c r="G10">
-        <v>131007</v>
-      </c>
-      <c r="H10">
-        <v>15</v>
-      </c>
-      <c r="I10"/>
-      <c r="J10"/>
+      <c r="G10"/>
+      <c r="H10"/>
       <c r="K10" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L10">
         <v>1000</v>
@@ -1663,10 +1645,10 @@
         <v>20000</v>
       </c>
       <c r="C11" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E11">
         <v>130006</v>
@@ -1674,16 +1656,10 @@
       <c r="F11">
         <v>10</v>
       </c>
-      <c r="G11">
-        <v>131007</v>
-      </c>
-      <c r="H11">
-        <v>15</v>
-      </c>
-      <c r="I11"/>
-      <c r="J11"/>
+      <c r="G11"/>
+      <c r="H11"/>
       <c r="K11" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L11">
         <v>1000</v>
@@ -1715,7 +1691,7 @@
         <v>20000</v>
       </c>
       <c r="C12" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D12">
         <v>2</v>
@@ -1732,10 +1708,8 @@
       <c r="H12">
         <v>15</v>
       </c>
-      <c r="I12"/>
-      <c r="J12"/>
       <c r="K12" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L12">
         <v>1000</v>
@@ -1767,7 +1741,7 @@
         <v>20000</v>
       </c>
       <c r="C13" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D13">
         <v>2</v>
@@ -1784,10 +1758,8 @@
       <c r="H13">
         <v>15</v>
       </c>
-      <c r="I13"/>
-      <c r="J13"/>
       <c r="K13" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L13">
         <v>1000</v>
@@ -1819,7 +1791,7 @@
         <v>20000</v>
       </c>
       <c r="C14" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D14">
         <v>2</v>
@@ -1836,10 +1808,8 @@
       <c r="H14">
         <v>15</v>
       </c>
-      <c r="I14"/>
-      <c r="J14"/>
       <c r="K14" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L14">
         <v>1000</v>
@@ -1871,7 +1841,7 @@
         <v>20000</v>
       </c>
       <c r="C15" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D15">
         <v>2</v>
@@ -1888,10 +1858,8 @@
       <c r="H15">
         <v>15</v>
       </c>
-      <c r="I15"/>
-      <c r="J15"/>
       <c r="K15" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L15">
         <v>1000</v>
@@ -1923,7 +1891,7 @@
         <v>20000</v>
       </c>
       <c r="C16" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D16">
         <v>2</v>
@@ -1940,10 +1908,8 @@
       <c r="H16">
         <v>15</v>
       </c>
-      <c r="I16"/>
-      <c r="J16"/>
       <c r="K16" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L16">
         <v>1000</v>
@@ -1975,7 +1941,7 @@
         <v>20000</v>
       </c>
       <c r="C17" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D17">
         <v>2</v>
@@ -1992,10 +1958,8 @@
       <c r="H17">
         <v>15</v>
       </c>
-      <c r="I17"/>
-      <c r="J17"/>
       <c r="K17" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L17">
         <v>1000</v>
@@ -2027,7 +1991,7 @@
         <v>20000</v>
       </c>
       <c r="C18" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D18">
         <v>2</v>
@@ -2044,10 +2008,8 @@
       <c r="H18">
         <v>15</v>
       </c>
-      <c r="I18"/>
-      <c r="J18"/>
       <c r="K18" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L18">
         <v>1000</v>
@@ -2079,7 +2041,7 @@
         <v>20000</v>
       </c>
       <c r="C19" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D19">
         <v>2</v>
@@ -2096,10 +2058,8 @@
       <c r="H19">
         <v>15</v>
       </c>
-      <c r="I19"/>
-      <c r="J19"/>
       <c r="K19" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L19">
         <v>1000</v>
@@ -2131,7 +2091,7 @@
         <v>20000</v>
       </c>
       <c r="C20" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D20">
         <v>2</v>
@@ -2148,10 +2108,8 @@
       <c r="H20">
         <v>15</v>
       </c>
-      <c r="I20"/>
-      <c r="J20"/>
       <c r="K20" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L20">
         <v>1000</v>
@@ -2183,7 +2141,7 @@
         <v>20000</v>
       </c>
       <c r="C21" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D21">
         <v>2</v>
@@ -2200,10 +2158,8 @@
       <c r="H21">
         <v>15</v>
       </c>
-      <c r="I21"/>
-      <c r="J21"/>
       <c r="K21" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L21">
         <v>1000</v>
@@ -2235,7 +2191,7 @@
         <v>20000</v>
       </c>
       <c r="C22" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D22">
         <v>2</v>
@@ -2252,10 +2208,8 @@
       <c r="H22">
         <v>15</v>
       </c>
-      <c r="I22"/>
-      <c r="J22"/>
       <c r="K22" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L22">
         <v>1000</v>
@@ -2287,7 +2241,7 @@
         <v>20000</v>
       </c>
       <c r="C23" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D23">
         <v>2</v>
@@ -2304,10 +2258,8 @@
       <c r="H23">
         <v>15</v>
       </c>
-      <c r="I23"/>
-      <c r="J23"/>
       <c r="K23" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L23">
         <v>1000</v>
@@ -2339,7 +2291,7 @@
         <v>20000</v>
       </c>
       <c r="C24" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D24">
         <v>2</v>
@@ -2356,10 +2308,8 @@
       <c r="H24">
         <v>15</v>
       </c>
-      <c r="I24"/>
-      <c r="J24"/>
       <c r="K24" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L24">
         <v>1000</v>
@@ -2391,7 +2341,7 @@
         <v>20000</v>
       </c>
       <c r="C25" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D25">
         <v>2</v>
@@ -2408,10 +2358,8 @@
       <c r="H25">
         <v>15</v>
       </c>
-      <c r="I25"/>
-      <c r="J25"/>
       <c r="K25" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L25">
         <v>1000</v>
@@ -2443,7 +2391,7 @@
         <v>20000</v>
       </c>
       <c r="C26" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D26">
         <v>2</v>
@@ -2460,10 +2408,8 @@
       <c r="H26">
         <v>15</v>
       </c>
-      <c r="I26"/>
-      <c r="J26"/>
       <c r="K26" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L26">
         <v>1000</v>
@@ -2495,7 +2441,10 @@
         <v>20000</v>
       </c>
       <c r="C27" t="s">
-        <v>46</v>
+        <v>48</v>
+      </c>
+      <c r="D27">
+        <v>3</v>
       </c>
       <c r="E27">
         <v>130006</v>
@@ -2516,7 +2465,7 @@
         <v>20</v>
       </c>
       <c r="K27" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L27">
         <v>1000</v>
@@ -2548,7 +2497,10 @@
         <v>20000</v>
       </c>
       <c r="C28" t="s">
-        <v>46</v>
+        <v>48</v>
+      </c>
+      <c r="D28">
+        <v>3</v>
       </c>
       <c r="E28">
         <v>130006</v>
@@ -2569,7 +2521,7 @@
         <v>20</v>
       </c>
       <c r="K28" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L28">
         <v>1000</v>
@@ -2601,7 +2553,10 @@
         <v>20000</v>
       </c>
       <c r="C29" t="s">
-        <v>46</v>
+        <v>48</v>
+      </c>
+      <c r="D29">
+        <v>3</v>
       </c>
       <c r="E29">
         <v>130006</v>
@@ -2622,7 +2577,7 @@
         <v>20</v>
       </c>
       <c r="K29" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L29">
         <v>1000</v>
@@ -2654,7 +2609,7 @@
         <v>20000</v>
       </c>
       <c r="C30" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E30">
         <v>130006</v>
@@ -2675,7 +2630,7 @@
         <v>20</v>
       </c>
       <c r="K30" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L30">
         <v>1000</v>
@@ -2707,7 +2662,7 @@
         <v>20000</v>
       </c>
       <c r="C31" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E31">
         <v>130006</v>
@@ -2728,7 +2683,7 @@
         <v>20</v>
       </c>
       <c r="K31" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L31">
         <v>1000</v>
@@ -2760,7 +2715,7 @@
         <v>20000</v>
       </c>
       <c r="C32" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E32">
         <v>130006</v>
@@ -2781,7 +2736,7 @@
         <v>20</v>
       </c>
       <c r="K32" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L32">
         <v>1000</v>
@@ -2813,7 +2768,7 @@
         <v>20000</v>
       </c>
       <c r="C33" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E33">
         <v>130006</v>
@@ -2834,7 +2789,7 @@
         <v>20</v>
       </c>
       <c r="K33" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L33">
         <v>1000</v>
@@ -2866,7 +2821,7 @@
         <v>20000</v>
       </c>
       <c r="C34" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E34">
         <v>130006</v>
@@ -2887,7 +2842,7 @@
         <v>20</v>
       </c>
       <c r="K34" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L34">
         <v>1000</v>
@@ -2919,7 +2874,7 @@
         <v>20000</v>
       </c>
       <c r="C35" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E35">
         <v>130006</v>
@@ -2940,7 +2895,7 @@
         <v>20</v>
       </c>
       <c r="K35" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L35">
         <v>1000</v>
@@ -2972,7 +2927,7 @@
         <v>20000</v>
       </c>
       <c r="C36" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E36">
         <v>130006</v>
@@ -2993,7 +2948,7 @@
         <v>20</v>
       </c>
       <c r="K36" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L36">
         <v>1000</v>
@@ -3025,7 +2980,7 @@
         <v>20000</v>
       </c>
       <c r="C37" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E37">
         <v>130006</v>
@@ -3046,7 +3001,7 @@
         <v>20</v>
       </c>
       <c r="K37" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L37">
         <v>1000</v>
@@ -3078,7 +3033,7 @@
         <v>20000</v>
       </c>
       <c r="C38" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E38">
         <v>130006</v>
@@ -3099,7 +3054,7 @@
         <v>20</v>
       </c>
       <c r="K38" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L38">
         <v>1000</v>
@@ -3131,7 +3086,7 @@
         <v>20000</v>
       </c>
       <c r="C39" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E39">
         <v>130006</v>
@@ -3152,7 +3107,7 @@
         <v>20</v>
       </c>
       <c r="K39" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L39">
         <v>1000</v>
@@ -3184,7 +3139,7 @@
         <v>20000</v>
       </c>
       <c r="C40" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E40">
         <v>130006</v>
@@ -3205,7 +3160,7 @@
         <v>20</v>
       </c>
       <c r="K40" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L40">
         <v>1000</v>
@@ -3237,7 +3192,7 @@
         <v>20000</v>
       </c>
       <c r="C41" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E41">
         <v>130006</v>
@@ -3258,7 +3213,7 @@
         <v>20</v>
       </c>
       <c r="K41" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L41">
         <v>1000</v>
@@ -3290,7 +3245,7 @@
         <v>20000</v>
       </c>
       <c r="C42" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E42">
         <v>130006</v>
@@ -3311,7 +3266,7 @@
         <v>20</v>
       </c>
       <c r="K42" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L42">
         <v>1000</v>
@@ -3343,7 +3298,7 @@
         <v>20000</v>
       </c>
       <c r="C43" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E43">
         <v>130006</v>
@@ -3364,7 +3319,7 @@
         <v>20</v>
       </c>
       <c r="K43" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L43">
         <v>1000</v>
@@ -3396,7 +3351,7 @@
         <v>20000</v>
       </c>
       <c r="C44" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E44">
         <v>130006</v>
@@ -3417,7 +3372,7 @@
         <v>20</v>
       </c>
       <c r="K44" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L44">
         <v>1000</v>
@@ -3449,7 +3404,7 @@
         <v>20000</v>
       </c>
       <c r="C45" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E45">
         <v>130006</v>
@@ -3470,7 +3425,7 @@
         <v>20</v>
       </c>
       <c r="K45" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L45">
         <v>1000</v>
@@ -3502,7 +3457,7 @@
         <v>20000</v>
       </c>
       <c r="C46" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E46">
         <v>130006</v>
@@ -3523,7 +3478,7 @@
         <v>20</v>
       </c>
       <c r="K46" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L46">
         <v>1000</v>
@@ -3555,7 +3510,7 @@
         <v>20000</v>
       </c>
       <c r="C47" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E47">
         <v>130006</v>
@@ -3576,7 +3531,7 @@
         <v>20</v>
       </c>
       <c r="K47" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L47">
         <v>1000</v>
@@ -3608,7 +3563,7 @@
         <v>20000</v>
       </c>
       <c r="C48" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E48">
         <v>130006</v>
@@ -3629,7 +3584,7 @@
         <v>20</v>
       </c>
       <c r="K48" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L48">
         <v>1000</v>
@@ -3661,7 +3616,7 @@
         <v>20000</v>
       </c>
       <c r="C49" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E49">
         <v>130006</v>
@@ -3682,7 +3637,7 @@
         <v>20</v>
       </c>
       <c r="K49" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L49">
         <v>1000</v>
@@ -3714,7 +3669,7 @@
         <v>20000</v>
       </c>
       <c r="C50" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E50">
         <v>130006</v>
@@ -3735,7 +3690,7 @@
         <v>20</v>
       </c>
       <c r="K50" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L50">
         <v>1000</v>
@@ -3767,7 +3722,7 @@
         <v>20000</v>
       </c>
       <c r="C51" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E51">
         <v>130006</v>
@@ -3788,7 +3743,7 @@
         <v>20</v>
       </c>
       <c r="K51" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L51">
         <v>1000</v>
@@ -3820,7 +3775,7 @@
         <v>20000</v>
       </c>
       <c r="C52" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E52">
         <v>130006</v>
@@ -3841,7 +3796,7 @@
         <v>20</v>
       </c>
       <c r="K52" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L52">
         <v>1000</v>
@@ -3873,7 +3828,7 @@
         <v>20000</v>
       </c>
       <c r="C53" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E53">
         <v>130006</v>
@@ -3894,7 +3849,7 @@
         <v>20</v>
       </c>
       <c r="K53" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L53">
         <v>1000</v>
@@ -3926,7 +3881,7 @@
         <v>20000</v>
       </c>
       <c r="C54" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E54">
         <v>130006</v>
@@ -3947,7 +3902,7 @@
         <v>20</v>
       </c>
       <c r="K54" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L54">
         <v>1000</v>
@@ -3979,7 +3934,7 @@
         <v>20000</v>
       </c>
       <c r="C55" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E55">
         <v>130006</v>
@@ -4000,7 +3955,7 @@
         <v>20</v>
       </c>
       <c r="K55" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L55">
         <v>1000</v>
@@ -4032,7 +3987,7 @@
         <v>20000</v>
       </c>
       <c r="C56" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E56">
         <v>130006</v>
@@ -4053,7 +4008,7 @@
         <v>20</v>
       </c>
       <c r="K56" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L56">
         <v>1000</v>
@@ -4085,7 +4040,7 @@
         <v>20000</v>
       </c>
       <c r="C57" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E57">
         <v>130006</v>
@@ -4106,7 +4061,7 @@
         <v>20</v>
       </c>
       <c r="K57" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L57">
         <v>1000</v>
@@ -4138,7 +4093,7 @@
         <v>20000</v>
       </c>
       <c r="C58" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E58">
         <v>130006</v>
@@ -4159,7 +4114,7 @@
         <v>20</v>
       </c>
       <c r="K58" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L58">
         <v>1000</v>
@@ -4191,7 +4146,7 @@
         <v>20000</v>
       </c>
       <c r="C59" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E59">
         <v>130006</v>
@@ -4212,7 +4167,7 @@
         <v>20</v>
       </c>
       <c r="K59" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L59">
         <v>1000</v>
@@ -4244,7 +4199,7 @@
         <v>20000</v>
       </c>
       <c r="C60" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E60">
         <v>130006</v>
@@ -4265,7 +4220,7 @@
         <v>20</v>
       </c>
       <c r="K60" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L60">
         <v>1000</v>
@@ -4297,7 +4252,7 @@
         <v>20000</v>
       </c>
       <c r="C61" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E61">
         <v>130006</v>
@@ -4318,7 +4273,7 @@
         <v>20</v>
       </c>
       <c r="K61" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L61">
         <v>1000</v>
@@ -4350,7 +4305,7 @@
         <v>20000</v>
       </c>
       <c r="C62" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E62">
         <v>130006</v>
@@ -4371,7 +4326,7 @@
         <v>20</v>
       </c>
       <c r="K62" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L62">
         <v>1000</v>
@@ -4403,7 +4358,7 @@
         <v>20000</v>
       </c>
       <c r="C63" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E63">
         <v>130006</v>
@@ -4424,7 +4379,7 @@
         <v>20</v>
       </c>
       <c r="K63" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L63">
         <v>1000</v>
@@ -4456,7 +4411,7 @@
         <v>20000</v>
       </c>
       <c r="C64" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E64">
         <v>130006</v>
@@ -4477,7 +4432,7 @@
         <v>20</v>
       </c>
       <c r="K64" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L64">
         <v>1000</v>
@@ -4509,7 +4464,7 @@
         <v>20000</v>
       </c>
       <c r="C65" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E65">
         <v>130006</v>
@@ -4530,7 +4485,7 @@
         <v>20</v>
       </c>
       <c r="K65" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L65">
         <v>1000</v>
@@ -4562,7 +4517,7 @@
         <v>20000</v>
       </c>
       <c r="C66" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E66">
         <v>130006</v>
@@ -4583,7 +4538,7 @@
         <v>20</v>
       </c>
       <c r="K66" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L66">
         <v>1000</v>
@@ -4615,7 +4570,7 @@
         <v>20000</v>
       </c>
       <c r="C67" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E67">
         <v>130006</v>
@@ -4636,7 +4591,7 @@
         <v>20</v>
       </c>
       <c r="K67" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L67">
         <v>1000</v>
@@ -4668,7 +4623,7 @@
         <v>20000</v>
       </c>
       <c r="C68" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E68">
         <v>130006</v>
@@ -4689,7 +4644,7 @@
         <v>20</v>
       </c>
       <c r="K68" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L68">
         <v>1000</v>
@@ -4721,7 +4676,7 @@
         <v>20000</v>
       </c>
       <c r="C69" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E69">
         <v>130006</v>
@@ -4742,7 +4697,7 @@
         <v>20</v>
       </c>
       <c r="K69" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L69">
         <v>1000</v>
@@ -4774,7 +4729,7 @@
         <v>20000</v>
       </c>
       <c r="C70" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E70">
         <v>130006</v>
@@ -4795,7 +4750,7 @@
         <v>20</v>
       </c>
       <c r="K70" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L70">
         <v>1000</v>
@@ -4827,7 +4782,7 @@
         <v>20000</v>
       </c>
       <c r="C71" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E71">
         <v>130006</v>
@@ -4848,7 +4803,7 @@
         <v>20</v>
       </c>
       <c r="K71" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L71">
         <v>1000</v>
@@ -4880,7 +4835,7 @@
         <v>20000</v>
       </c>
       <c r="C72" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E72">
         <v>130006</v>
@@ -4901,7 +4856,7 @@
         <v>20</v>
       </c>
       <c r="K72" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L72">
         <v>1000</v>
@@ -4933,7 +4888,7 @@
         <v>20000</v>
       </c>
       <c r="C73" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E73">
         <v>130006</v>
@@ -4954,7 +4909,7 @@
         <v>20</v>
       </c>
       <c r="K73" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L73">
         <v>1000</v>
@@ -4986,7 +4941,7 @@
         <v>20000</v>
       </c>
       <c r="C74" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E74">
         <v>130006</v>
@@ -5007,7 +4962,7 @@
         <v>20</v>
       </c>
       <c r="K74" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L74">
         <v>1000</v>
@@ -5039,7 +4994,7 @@
         <v>20000</v>
       </c>
       <c r="C75" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E75">
         <v>130006</v>
@@ -5060,7 +5015,7 @@
         <v>20</v>
       </c>
       <c r="K75" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L75">
         <v>1000</v>
@@ -5092,7 +5047,7 @@
         <v>20000</v>
       </c>
       <c r="C76" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E76">
         <v>130006</v>
@@ -5113,7 +5068,7 @@
         <v>20</v>
       </c>
       <c r="K76" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L76">
         <v>1000</v>
@@ -5145,7 +5100,7 @@
         <v>20000</v>
       </c>
       <c r="C77" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E77">
         <v>130006</v>
@@ -5166,7 +5121,7 @@
         <v>20</v>
       </c>
       <c r="K77" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L77">
         <v>1000</v>
@@ -5198,7 +5153,7 @@
         <v>20000</v>
       </c>
       <c r="C78" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E78">
         <v>130006</v>
@@ -5219,7 +5174,7 @@
         <v>20</v>
       </c>
       <c r="K78" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L78">
         <v>1000</v>
@@ -5251,7 +5206,7 @@
         <v>20000</v>
       </c>
       <c r="C79" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E79">
         <v>130006</v>
@@ -5272,7 +5227,7 @@
         <v>20</v>
       </c>
       <c r="K79" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L79">
         <v>1000</v>
@@ -5304,7 +5259,7 @@
         <v>20000</v>
       </c>
       <c r="C80" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E80">
         <v>130006</v>
@@ -5325,7 +5280,7 @@
         <v>20</v>
       </c>
       <c r="K80" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L80">
         <v>1000</v>
@@ -5357,7 +5312,7 @@
         <v>20000</v>
       </c>
       <c r="C81" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E81">
         <v>130006</v>
@@ -5378,7 +5333,7 @@
         <v>20</v>
       </c>
       <c r="K81" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L81">
         <v>1000</v>
@@ -5410,7 +5365,7 @@
         <v>20000</v>
       </c>
       <c r="C82" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E82">
         <v>130006</v>
@@ -5431,7 +5386,7 @@
         <v>20</v>
       </c>
       <c r="K82" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L82">
         <v>1000</v>
@@ -5463,7 +5418,7 @@
         <v>20000</v>
       </c>
       <c r="C83" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E83">
         <v>130006</v>
@@ -5484,7 +5439,7 @@
         <v>20</v>
       </c>
       <c r="K83" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L83">
         <v>1000</v>
@@ -5516,7 +5471,7 @@
         <v>20000</v>
       </c>
       <c r="C84" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E84">
         <v>130006</v>
@@ -5537,7 +5492,7 @@
         <v>20</v>
       </c>
       <c r="K84" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L84">
         <v>1000</v>
@@ -5569,7 +5524,7 @@
         <v>20000</v>
       </c>
       <c r="C85" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E85">
         <v>130006</v>
@@ -5590,7 +5545,7 @@
         <v>20</v>
       </c>
       <c r="K85" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L85">
         <v>1000</v>
@@ -5622,7 +5577,7 @@
         <v>20000</v>
       </c>
       <c r="C86" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E86">
         <v>130006</v>
@@ -5643,7 +5598,7 @@
         <v>20</v>
       </c>
       <c r="K86" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L86">
         <v>1000</v>
@@ -5675,7 +5630,7 @@
         <v>20000</v>
       </c>
       <c r="C87" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E87">
         <v>130006</v>
@@ -5696,7 +5651,7 @@
         <v>20</v>
       </c>
       <c r="K87" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L87">
         <v>1000</v>
@@ -5728,7 +5683,7 @@
         <v>20000</v>
       </c>
       <c r="C88" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E88">
         <v>130006</v>
@@ -5749,7 +5704,7 @@
         <v>20</v>
       </c>
       <c r="K88" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L88">
         <v>1000</v>
@@ -5781,7 +5736,7 @@
         <v>20000</v>
       </c>
       <c r="C89" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E89">
         <v>130006</v>
@@ -5802,7 +5757,7 @@
         <v>20</v>
       </c>
       <c r="K89" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L89">
         <v>1000</v>
@@ -5834,7 +5789,7 @@
         <v>20000</v>
       </c>
       <c r="C90" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E90">
         <v>130006</v>
@@ -5855,7 +5810,7 @@
         <v>20</v>
       </c>
       <c r="K90" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L90">
         <v>1000</v>
@@ -5887,7 +5842,7 @@
         <v>20000</v>
       </c>
       <c r="C91" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E91">
         <v>130006</v>
@@ -5908,7 +5863,7 @@
         <v>20</v>
       </c>
       <c r="K91" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L91">
         <v>1000</v>
@@ -5940,7 +5895,7 @@
         <v>20000</v>
       </c>
       <c r="C92" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E92">
         <v>130006</v>
@@ -5961,7 +5916,7 @@
         <v>20</v>
       </c>
       <c r="K92" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L92">
         <v>1000</v>
@@ -5993,7 +5948,7 @@
         <v>20000</v>
       </c>
       <c r="C93" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E93">
         <v>130006</v>
@@ -6014,7 +5969,7 @@
         <v>20</v>
       </c>
       <c r="K93" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L93">
         <v>1000</v>
@@ -6046,7 +6001,7 @@
         <v>20000</v>
       </c>
       <c r="C94" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E94">
         <v>130006</v>
@@ -6067,7 +6022,7 @@
         <v>20</v>
       </c>
       <c r="K94" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L94">
         <v>1000</v>
@@ -6099,7 +6054,7 @@
         <v>20000</v>
       </c>
       <c r="C95" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E95">
         <v>130006</v>
@@ -6120,7 +6075,7 @@
         <v>20</v>
       </c>
       <c r="K95" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L95">
         <v>1000</v>
@@ -6152,7 +6107,7 @@
         <v>20000</v>
       </c>
       <c r="C96" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E96">
         <v>130006</v>
@@ -6173,7 +6128,7 @@
         <v>20</v>
       </c>
       <c r="K96" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L96">
         <v>1000</v>
@@ -6205,7 +6160,7 @@
         <v>20000</v>
       </c>
       <c r="C97" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E97">
         <v>130006</v>
@@ -6226,7 +6181,7 @@
         <v>20</v>
       </c>
       <c r="K97" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L97">
         <v>1000</v>
@@ -6258,7 +6213,7 @@
         <v>20000</v>
       </c>
       <c r="C98" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E98">
         <v>130006</v>
@@ -6279,7 +6234,7 @@
         <v>20</v>
       </c>
       <c r="K98" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L98">
         <v>1000</v>
@@ -6311,7 +6266,7 @@
         <v>20000</v>
       </c>
       <c r="C99" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E99">
         <v>130006</v>
@@ -6332,7 +6287,7 @@
         <v>20</v>
       </c>
       <c r="K99" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L99">
         <v>1000</v>
@@ -6364,7 +6319,7 @@
         <v>20000</v>
       </c>
       <c r="C100" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E100">
         <v>130006</v>
@@ -6385,7 +6340,7 @@
         <v>20</v>
       </c>
       <c r="K100" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L100">
         <v>1000</v>
@@ -6417,7 +6372,7 @@
         <v>20000</v>
       </c>
       <c r="C101" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E101">
         <v>130006</v>
@@ -6438,7 +6393,7 @@
         <v>20</v>
       </c>
       <c r="K101" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L101">
         <v>1000</v>
@@ -6470,7 +6425,7 @@
         <v>20000</v>
       </c>
       <c r="C102" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E102">
         <v>130006</v>
@@ -6491,7 +6446,7 @@
         <v>20</v>
       </c>
       <c r="K102" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L102">
         <v>1000</v>
@@ -6523,7 +6478,7 @@
         <v>20000</v>
       </c>
       <c r="C103" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E103">
         <v>130006</v>
@@ -6544,7 +6499,7 @@
         <v>20</v>
       </c>
       <c r="K103" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L103">
         <v>1000</v>
@@ -6576,7 +6531,7 @@
         <v>20000</v>
       </c>
       <c r="C104" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E104">
         <v>130006</v>
@@ -6597,7 +6552,7 @@
         <v>20</v>
       </c>
       <c r="K104" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L104">
         <v>1000</v>
@@ -6629,7 +6584,7 @@
         <v>20000</v>
       </c>
       <c r="C105" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E105">
         <v>130006</v>
@@ -6650,7 +6605,7 @@
         <v>20</v>
       </c>
       <c r="K105" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L105">
         <v>1000</v>
@@ -6682,7 +6637,7 @@
         <v>20000</v>
       </c>
       <c r="C106" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E106">
         <v>130006</v>
@@ -6703,7 +6658,7 @@
         <v>20</v>
       </c>
       <c r="K106" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L106">
         <v>1000</v>
@@ -6735,7 +6690,7 @@
         <v>20000</v>
       </c>
       <c r="C107" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E107">
         <v>130006</v>
@@ -6756,7 +6711,7 @@
         <v>20</v>
       </c>
       <c r="K107" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L107">
         <v>1000</v>
@@ -7039,31 +6994,31 @@
         <v>29</v>
       </c>
       <c r="E5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H5" t="s">
+        <v>34</v>
+      </c>
+      <c r="I5" t="s">
         <v>33</v>
       </c>
-      <c r="I5" t="s">
-        <v>32</v>
-      </c>
       <c r="J5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="O5" t="s">
         <v>22</v>
@@ -7083,19 +7038,19 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E6" t="s">
         <v>38</v>
       </c>
-      <c r="C6" t="s">
-        <v>39</v>
-      </c>
-      <c r="E6" t="s">
-        <v>37</v>
-      </c>
       <c r="F6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -7106,7 +7061,7 @@
         <v>10000</v>
       </c>
       <c r="C7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E7">
         <v>130001</v>
@@ -7127,7 +7082,7 @@
         <v>20</v>
       </c>
       <c r="K7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="L7">
         <v>666</v>
@@ -7145,7 +7100,7 @@
         <v>3</v>
       </c>
       <c r="R7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="S7">
         <v>666</v>
@@ -7159,7 +7114,7 @@
         <v>15000</v>
       </c>
       <c r="C8" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E8">
         <v>130004</v>
@@ -7174,7 +7129,7 @@
         <v>15</v>
       </c>
       <c r="K8" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="L8">
         <v>888</v>
@@ -7192,7 +7147,7 @@
         <v>7</v>
       </c>
       <c r="R8" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="S8">
         <v>667</v>
@@ -7206,7 +7161,7 @@
         <v>20000</v>
       </c>
       <c r="C9" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E9">
         <v>130006</v>
@@ -7227,7 +7182,7 @@
         <v>20</v>
       </c>
       <c r="K9" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L9">
         <v>1000</v>
@@ -7259,7 +7214,7 @@
         <v>20000</v>
       </c>
       <c r="C10" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E10">
         <v>130006</v>
@@ -7280,7 +7235,7 @@
         <v>20</v>
       </c>
       <c r="K10" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L10">
         <v>1000</v>
@@ -7312,7 +7267,7 @@
         <v>20000</v>
       </c>
       <c r="C11" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E11">
         <v>130006</v>
@@ -7333,7 +7288,7 @@
         <v>20</v>
       </c>
       <c r="K11" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L11">
         <v>1000</v>
@@ -7365,7 +7320,7 @@
         <v>20000</v>
       </c>
       <c r="C12" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E12">
         <v>130006</v>
@@ -7386,7 +7341,7 @@
         <v>20</v>
       </c>
       <c r="K12" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L12">
         <v>1000</v>
@@ -7418,7 +7373,7 @@
         <v>20000</v>
       </c>
       <c r="C13" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E13">
         <v>130006</v>
@@ -7439,7 +7394,7 @@
         <v>20</v>
       </c>
       <c r="K13" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L13">
         <v>1000</v>
@@ -7471,7 +7426,7 @@
         <v>20000</v>
       </c>
       <c r="C14" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E14">
         <v>130006</v>
@@ -7492,7 +7447,7 @@
         <v>20</v>
       </c>
       <c r="K14" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L14">
         <v>1000</v>
@@ -7524,7 +7479,7 @@
         <v>20000</v>
       </c>
       <c r="C15" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E15">
         <v>130006</v>
@@ -7545,7 +7500,7 @@
         <v>20</v>
       </c>
       <c r="K15" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L15">
         <v>1000</v>
@@ -7577,7 +7532,7 @@
         <v>20000</v>
       </c>
       <c r="C16" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E16">
         <v>130006</v>
@@ -7598,7 +7553,7 @@
         <v>20</v>
       </c>
       <c r="K16" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L16">
         <v>1000</v>
@@ -7630,7 +7585,7 @@
         <v>20000</v>
       </c>
       <c r="C17" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E17">
         <v>130006</v>
@@ -7651,7 +7606,7 @@
         <v>20</v>
       </c>
       <c r="K17" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L17">
         <v>1000</v>
@@ -7683,7 +7638,7 @@
         <v>20000</v>
       </c>
       <c r="C18" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E18">
         <v>130006</v>
@@ -7704,7 +7659,7 @@
         <v>20</v>
       </c>
       <c r="K18" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L18">
         <v>1000</v>
@@ -7736,7 +7691,7 @@
         <v>20000</v>
       </c>
       <c r="C19" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E19">
         <v>130006</v>
@@ -7757,7 +7712,7 @@
         <v>20</v>
       </c>
       <c r="K19" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L19">
         <v>1000</v>
@@ -7789,7 +7744,7 @@
         <v>20000</v>
       </c>
       <c r="C20" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E20">
         <v>130006</v>
@@ -7810,7 +7765,7 @@
         <v>20</v>
       </c>
       <c r="K20" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L20">
         <v>1000</v>
@@ -7842,7 +7797,7 @@
         <v>20000</v>
       </c>
       <c r="C21" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E21">
         <v>130006</v>
@@ -7863,7 +7818,7 @@
         <v>20</v>
       </c>
       <c r="K21" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L21">
         <v>1000</v>
@@ -7895,7 +7850,7 @@
         <v>20000</v>
       </c>
       <c r="C22" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E22">
         <v>130006</v>
@@ -7916,7 +7871,7 @@
         <v>20</v>
       </c>
       <c r="K22" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L22">
         <v>1000</v>
@@ -7948,7 +7903,7 @@
         <v>20000</v>
       </c>
       <c r="C23" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E23">
         <v>130006</v>
@@ -7969,7 +7924,7 @@
         <v>20</v>
       </c>
       <c r="K23" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L23">
         <v>1000</v>
@@ -8001,7 +7956,7 @@
         <v>20000</v>
       </c>
       <c r="C24" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E24">
         <v>130006</v>
@@ -8022,7 +7977,7 @@
         <v>20</v>
       </c>
       <c r="K24" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L24">
         <v>1000</v>
@@ -8054,7 +8009,7 @@
         <v>20000</v>
       </c>
       <c r="C25" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E25">
         <v>130006</v>
@@ -8075,7 +8030,7 @@
         <v>20</v>
       </c>
       <c r="K25" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L25">
         <v>1000</v>
@@ -8107,7 +8062,7 @@
         <v>20000</v>
       </c>
       <c r="C26" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E26">
         <v>130006</v>
@@ -8128,7 +8083,7 @@
         <v>20</v>
       </c>
       <c r="K26" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L26">
         <v>1000</v>
@@ -8160,7 +8115,7 @@
         <v>20000</v>
       </c>
       <c r="C27" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E27">
         <v>130006</v>
@@ -8181,7 +8136,7 @@
         <v>20</v>
       </c>
       <c r="K27" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L27">
         <v>1000</v>
@@ -8213,7 +8168,7 @@
         <v>20000</v>
       </c>
       <c r="C28" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E28">
         <v>130006</v>
@@ -8234,7 +8189,7 @@
         <v>20</v>
       </c>
       <c r="K28" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L28">
         <v>1000</v>
@@ -8266,7 +8221,7 @@
         <v>20000</v>
       </c>
       <c r="C29" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E29">
         <v>130006</v>
@@ -8287,7 +8242,7 @@
         <v>20</v>
       </c>
       <c r="K29" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L29">
         <v>1000</v>
@@ -8319,7 +8274,7 @@
         <v>20000</v>
       </c>
       <c r="C30" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E30">
         <v>130006</v>
@@ -8340,7 +8295,7 @@
         <v>20</v>
       </c>
       <c r="K30" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L30">
         <v>1000</v>
@@ -8372,7 +8327,7 @@
         <v>20000</v>
       </c>
       <c r="C31" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E31">
         <v>130006</v>
@@ -8393,7 +8348,7 @@
         <v>20</v>
       </c>
       <c r="K31" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L31">
         <v>1000</v>
@@ -8425,7 +8380,7 @@
         <v>20000</v>
       </c>
       <c r="C32" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E32">
         <v>130006</v>
@@ -8446,7 +8401,7 @@
         <v>20</v>
       </c>
       <c r="K32" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L32">
         <v>1000</v>
@@ -8478,7 +8433,7 @@
         <v>20000</v>
       </c>
       <c r="C33" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E33">
         <v>130006</v>
@@ -8499,7 +8454,7 @@
         <v>20</v>
       </c>
       <c r="K33" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L33">
         <v>1000</v>
@@ -8531,7 +8486,7 @@
         <v>20000</v>
       </c>
       <c r="C34" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E34">
         <v>130006</v>
@@ -8552,7 +8507,7 @@
         <v>20</v>
       </c>
       <c r="K34" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L34">
         <v>1000</v>
@@ -8584,7 +8539,7 @@
         <v>20000</v>
       </c>
       <c r="C35" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E35">
         <v>130006</v>
@@ -8605,7 +8560,7 @@
         <v>20</v>
       </c>
       <c r="K35" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L35">
         <v>1000</v>
@@ -8637,7 +8592,7 @@
         <v>20000</v>
       </c>
       <c r="C36" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E36">
         <v>130006</v>
@@ -8658,7 +8613,7 @@
         <v>20</v>
       </c>
       <c r="K36" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L36">
         <v>1000</v>
@@ -8690,7 +8645,7 @@
         <v>20000</v>
       </c>
       <c r="C37" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E37">
         <v>130006</v>
@@ -8711,7 +8666,7 @@
         <v>20</v>
       </c>
       <c r="K37" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L37">
         <v>1000</v>
@@ -8743,7 +8698,7 @@
         <v>20000</v>
       </c>
       <c r="C38" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E38">
         <v>130006</v>
@@ -8764,7 +8719,7 @@
         <v>20</v>
       </c>
       <c r="K38" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L38">
         <v>1000</v>
@@ -8796,7 +8751,7 @@
         <v>20000</v>
       </c>
       <c r="C39" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E39">
         <v>130006</v>
@@ -8817,7 +8772,7 @@
         <v>20</v>
       </c>
       <c r="K39" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L39">
         <v>1000</v>
@@ -8849,7 +8804,7 @@
         <v>20000</v>
       </c>
       <c r="C40" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E40">
         <v>130006</v>
@@ -8870,7 +8825,7 @@
         <v>20</v>
       </c>
       <c r="K40" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L40">
         <v>1000</v>
@@ -8902,7 +8857,7 @@
         <v>20000</v>
       </c>
       <c r="C41" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E41">
         <v>130006</v>
@@ -8923,7 +8878,7 @@
         <v>20</v>
       </c>
       <c r="K41" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L41">
         <v>1000</v>
@@ -8955,7 +8910,7 @@
         <v>20000</v>
       </c>
       <c r="C42" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E42">
         <v>130006</v>
@@ -8976,7 +8931,7 @@
         <v>20</v>
       </c>
       <c r="K42" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L42">
         <v>1000</v>
@@ -9008,7 +8963,7 @@
         <v>20000</v>
       </c>
       <c r="C43" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E43">
         <v>130006</v>
@@ -9029,7 +8984,7 @@
         <v>20</v>
       </c>
       <c r="K43" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L43">
         <v>1000</v>
@@ -9061,7 +9016,7 @@
         <v>20000</v>
       </c>
       <c r="C44" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E44">
         <v>130006</v>
@@ -9082,7 +9037,7 @@
         <v>20</v>
       </c>
       <c r="K44" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L44">
         <v>1000</v>
@@ -9114,7 +9069,7 @@
         <v>20000</v>
       </c>
       <c r="C45" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E45">
         <v>130006</v>
@@ -9135,7 +9090,7 @@
         <v>20</v>
       </c>
       <c r="K45" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L45">
         <v>1000</v>
@@ -9167,7 +9122,7 @@
         <v>20000</v>
       </c>
       <c r="C46" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E46">
         <v>130006</v>
@@ -9188,7 +9143,7 @@
         <v>20</v>
       </c>
       <c r="K46" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L46">
         <v>1000</v>
@@ -9220,7 +9175,7 @@
         <v>20000</v>
       </c>
       <c r="C47" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E47">
         <v>130006</v>
@@ -9241,7 +9196,7 @@
         <v>20</v>
       </c>
       <c r="K47" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L47">
         <v>1000</v>
@@ -9273,7 +9228,7 @@
         <v>20000</v>
       </c>
       <c r="C48" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E48">
         <v>130006</v>
@@ -9294,7 +9249,7 @@
         <v>20</v>
       </c>
       <c r="K48" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L48">
         <v>1000</v>
@@ -9326,7 +9281,7 @@
         <v>20000</v>
       </c>
       <c r="C49" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E49">
         <v>130006</v>
@@ -9347,7 +9302,7 @@
         <v>20</v>
       </c>
       <c r="K49" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L49">
         <v>1000</v>
@@ -9379,7 +9334,7 @@
         <v>20000</v>
       </c>
       <c r="C50" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E50">
         <v>130006</v>
@@ -9400,7 +9355,7 @@
         <v>20</v>
       </c>
       <c r="K50" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L50">
         <v>1000</v>
@@ -9432,7 +9387,7 @@
         <v>20000</v>
       </c>
       <c r="C51" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E51">
         <v>130006</v>
@@ -9453,7 +9408,7 @@
         <v>20</v>
       </c>
       <c r="K51" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L51">
         <v>1000</v>
@@ -9485,7 +9440,7 @@
         <v>20000</v>
       </c>
       <c r="C52" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E52">
         <v>130006</v>
@@ -9506,7 +9461,7 @@
         <v>20</v>
       </c>
       <c r="K52" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L52">
         <v>1000</v>
@@ -9538,7 +9493,7 @@
         <v>20000</v>
       </c>
       <c r="C53" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E53">
         <v>130006</v>
@@ -9559,7 +9514,7 @@
         <v>20</v>
       </c>
       <c r="K53" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L53">
         <v>1000</v>
@@ -9591,7 +9546,7 @@
         <v>20000</v>
       </c>
       <c r="C54" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E54">
         <v>130006</v>
@@ -9612,7 +9567,7 @@
         <v>20</v>
       </c>
       <c r="K54" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L54">
         <v>1000</v>
@@ -9644,7 +9599,7 @@
         <v>20000</v>
       </c>
       <c r="C55" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E55">
         <v>130006</v>
@@ -9665,7 +9620,7 @@
         <v>20</v>
       </c>
       <c r="K55" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L55">
         <v>1000</v>
@@ -9697,7 +9652,7 @@
         <v>20000</v>
       </c>
       <c r="C56" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E56">
         <v>130006</v>
@@ -9718,7 +9673,7 @@
         <v>20</v>
       </c>
       <c r="K56" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L56">
         <v>1000</v>
@@ -9750,7 +9705,7 @@
         <v>20000</v>
       </c>
       <c r="C57" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E57">
         <v>130006</v>
@@ -9771,7 +9726,7 @@
         <v>20</v>
       </c>
       <c r="K57" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L57">
         <v>1000</v>
@@ -9803,7 +9758,7 @@
         <v>20000</v>
       </c>
       <c r="C58" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E58">
         <v>130006</v>
@@ -9824,7 +9779,7 @@
         <v>20</v>
       </c>
       <c r="K58" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L58">
         <v>1000</v>
@@ -9856,7 +9811,7 @@
         <v>20000</v>
       </c>
       <c r="C59" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E59">
         <v>130006</v>
@@ -9877,7 +9832,7 @@
         <v>20</v>
       </c>
       <c r="K59" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L59">
         <v>1000</v>
@@ -9909,7 +9864,7 @@
         <v>20000</v>
       </c>
       <c r="C60" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E60">
         <v>130006</v>
@@ -9930,7 +9885,7 @@
         <v>20</v>
       </c>
       <c r="K60" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L60">
         <v>1000</v>
@@ -9962,7 +9917,7 @@
         <v>20000</v>
       </c>
       <c r="C61" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E61">
         <v>130006</v>
@@ -9983,7 +9938,7 @@
         <v>20</v>
       </c>
       <c r="K61" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L61">
         <v>1000</v>
@@ -10015,7 +9970,7 @@
         <v>20000</v>
       </c>
       <c r="C62" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E62">
         <v>130006</v>
@@ -10036,7 +9991,7 @@
         <v>20</v>
       </c>
       <c r="K62" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L62">
         <v>1000</v>
@@ -10068,7 +10023,7 @@
         <v>20000</v>
       </c>
       <c r="C63" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E63">
         <v>130006</v>
@@ -10089,7 +10044,7 @@
         <v>20</v>
       </c>
       <c r="K63" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L63">
         <v>1000</v>
@@ -10121,7 +10076,7 @@
         <v>20000</v>
       </c>
       <c r="C64" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E64">
         <v>130006</v>
@@ -10142,7 +10097,7 @@
         <v>20</v>
       </c>
       <c r="K64" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L64">
         <v>1000</v>
@@ -10174,7 +10129,7 @@
         <v>20000</v>
       </c>
       <c r="C65" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E65">
         <v>130006</v>
@@ -10195,7 +10150,7 @@
         <v>20</v>
       </c>
       <c r="K65" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L65">
         <v>1000</v>
@@ -10227,7 +10182,7 @@
         <v>20000</v>
       </c>
       <c r="C66" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E66">
         <v>130006</v>
@@ -10248,7 +10203,7 @@
         <v>20</v>
       </c>
       <c r="K66" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L66">
         <v>1000</v>
@@ -10280,7 +10235,7 @@
         <v>20000</v>
       </c>
       <c r="C67" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E67">
         <v>130006</v>
@@ -10301,7 +10256,7 @@
         <v>20</v>
       </c>
       <c r="K67" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L67">
         <v>1000</v>
@@ -10333,7 +10288,7 @@
         <v>20000</v>
       </c>
       <c r="C68" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E68">
         <v>130006</v>
@@ -10354,7 +10309,7 @@
         <v>20</v>
       </c>
       <c r="K68" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L68">
         <v>1000</v>
@@ -10386,7 +10341,7 @@
         <v>20000</v>
       </c>
       <c r="C69" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E69">
         <v>130006</v>
@@ -10407,7 +10362,7 @@
         <v>20</v>
       </c>
       <c r="K69" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L69">
         <v>1000</v>
@@ -10439,7 +10394,7 @@
         <v>20000</v>
       </c>
       <c r="C70" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E70">
         <v>130006</v>
@@ -10460,7 +10415,7 @@
         <v>20</v>
       </c>
       <c r="K70" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L70">
         <v>1000</v>
@@ -10492,7 +10447,7 @@
         <v>20000</v>
       </c>
       <c r="C71" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E71">
         <v>130006</v>
@@ -10513,7 +10468,7 @@
         <v>20</v>
       </c>
       <c r="K71" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L71">
         <v>1000</v>
@@ -10545,7 +10500,7 @@
         <v>20000</v>
       </c>
       <c r="C72" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E72">
         <v>130006</v>
@@ -10566,7 +10521,7 @@
         <v>20</v>
       </c>
       <c r="K72" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L72">
         <v>1000</v>
@@ -10598,7 +10553,7 @@
         <v>20000</v>
       </c>
       <c r="C73" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E73">
         <v>130006</v>
@@ -10619,7 +10574,7 @@
         <v>20</v>
       </c>
       <c r="K73" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L73">
         <v>1000</v>
@@ -10651,7 +10606,7 @@
         <v>20000</v>
       </c>
       <c r="C74" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E74">
         <v>130006</v>
@@ -10672,7 +10627,7 @@
         <v>20</v>
       </c>
       <c r="K74" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L74">
         <v>1000</v>
@@ -10704,7 +10659,7 @@
         <v>20000</v>
       </c>
       <c r="C75" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E75">
         <v>130006</v>
@@ -10725,7 +10680,7 @@
         <v>20</v>
       </c>
       <c r="K75" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L75">
         <v>1000</v>
@@ -10757,7 +10712,7 @@
         <v>20000</v>
       </c>
       <c r="C76" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E76">
         <v>130006</v>
@@ -10778,7 +10733,7 @@
         <v>20</v>
       </c>
       <c r="K76" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L76">
         <v>1000</v>
@@ -10810,7 +10765,7 @@
         <v>20000</v>
       </c>
       <c r="C77" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E77">
         <v>130006</v>
@@ -10831,7 +10786,7 @@
         <v>20</v>
       </c>
       <c r="K77" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L77">
         <v>1000</v>
@@ -10863,7 +10818,7 @@
         <v>20000</v>
       </c>
       <c r="C78" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E78">
         <v>130006</v>
@@ -10884,7 +10839,7 @@
         <v>20</v>
       </c>
       <c r="K78" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L78">
         <v>1000</v>
@@ -10916,7 +10871,7 @@
         <v>20000</v>
       </c>
       <c r="C79" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E79">
         <v>130006</v>
@@ -10937,7 +10892,7 @@
         <v>20</v>
       </c>
       <c r="K79" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L79">
         <v>1000</v>
@@ -10969,7 +10924,7 @@
         <v>20000</v>
       </c>
       <c r="C80" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E80">
         <v>130006</v>
@@ -10990,7 +10945,7 @@
         <v>20</v>
       </c>
       <c r="K80" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L80">
         <v>1000</v>
@@ -11022,7 +10977,7 @@
         <v>20000</v>
       </c>
       <c r="C81" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E81">
         <v>130006</v>
@@ -11043,7 +10998,7 @@
         <v>20</v>
       </c>
       <c r="K81" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L81">
         <v>1000</v>
@@ -11075,7 +11030,7 @@
         <v>20000</v>
       </c>
       <c r="C82" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E82">
         <v>130006</v>
@@ -11096,7 +11051,7 @@
         <v>20</v>
       </c>
       <c r="K82" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L82">
         <v>1000</v>
@@ -11128,7 +11083,7 @@
         <v>20000</v>
       </c>
       <c r="C83" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E83">
         <v>130006</v>
@@ -11149,7 +11104,7 @@
         <v>20</v>
       </c>
       <c r="K83" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L83">
         <v>1000</v>
@@ -11181,7 +11136,7 @@
         <v>20000</v>
       </c>
       <c r="C84" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E84">
         <v>130006</v>
@@ -11202,7 +11157,7 @@
         <v>20</v>
       </c>
       <c r="K84" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L84">
         <v>1000</v>
@@ -11234,7 +11189,7 @@
         <v>20000</v>
       </c>
       <c r="C85" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E85">
         <v>130006</v>
@@ -11255,7 +11210,7 @@
         <v>20</v>
       </c>
       <c r="K85" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L85">
         <v>1000</v>
@@ -11287,7 +11242,7 @@
         <v>20000</v>
       </c>
       <c r="C86" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E86">
         <v>130006</v>
@@ -11308,7 +11263,7 @@
         <v>20</v>
       </c>
       <c r="K86" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L86">
         <v>1000</v>
@@ -11340,7 +11295,7 @@
         <v>20000</v>
       </c>
       <c r="C87" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E87">
         <v>130006</v>
@@ -11361,7 +11316,7 @@
         <v>20</v>
       </c>
       <c r="K87" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L87">
         <v>1000</v>
@@ -11393,7 +11348,7 @@
         <v>20000</v>
       </c>
       <c r="C88" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E88">
         <v>130006</v>
@@ -11414,7 +11369,7 @@
         <v>20</v>
       </c>
       <c r="K88" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L88">
         <v>1000</v>
@@ -11446,7 +11401,7 @@
         <v>20000</v>
       </c>
       <c r="C89" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E89">
         <v>130006</v>
@@ -11467,7 +11422,7 @@
         <v>20</v>
       </c>
       <c r="K89" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L89">
         <v>1000</v>
@@ -11499,7 +11454,7 @@
         <v>20000</v>
       </c>
       <c r="C90" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E90">
         <v>130006</v>
@@ -11520,7 +11475,7 @@
         <v>20</v>
       </c>
       <c r="K90" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L90">
         <v>1000</v>
@@ -11552,7 +11507,7 @@
         <v>20000</v>
       </c>
       <c r="C91" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E91">
         <v>130006</v>
@@ -11573,7 +11528,7 @@
         <v>20</v>
       </c>
       <c r="K91" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L91">
         <v>1000</v>
@@ -11605,7 +11560,7 @@
         <v>20000</v>
       </c>
       <c r="C92" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E92">
         <v>130006</v>
@@ -11626,7 +11581,7 @@
         <v>20</v>
       </c>
       <c r="K92" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L92">
         <v>1000</v>
@@ -11658,7 +11613,7 @@
         <v>20000</v>
       </c>
       <c r="C93" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E93">
         <v>130006</v>
@@ -11679,7 +11634,7 @@
         <v>20</v>
       </c>
       <c r="K93" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L93">
         <v>1000</v>
@@ -11711,7 +11666,7 @@
         <v>20000</v>
       </c>
       <c r="C94" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E94">
         <v>130006</v>
@@ -11732,7 +11687,7 @@
         <v>20</v>
       </c>
       <c r="K94" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L94">
         <v>1000</v>
@@ -11764,7 +11719,7 @@
         <v>20000</v>
       </c>
       <c r="C95" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E95">
         <v>130006</v>
@@ -11785,7 +11740,7 @@
         <v>20</v>
       </c>
       <c r="K95" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L95">
         <v>1000</v>
@@ -11817,7 +11772,7 @@
         <v>20000</v>
       </c>
       <c r="C96" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E96">
         <v>130006</v>
@@ -11838,7 +11793,7 @@
         <v>20</v>
       </c>
       <c r="K96" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L96">
         <v>1000</v>
@@ -11870,7 +11825,7 @@
         <v>20000</v>
       </c>
       <c r="C97" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E97">
         <v>130006</v>
@@ -11891,7 +11846,7 @@
         <v>20</v>
       </c>
       <c r="K97" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L97">
         <v>1000</v>
@@ -11923,7 +11878,7 @@
         <v>20000</v>
       </c>
       <c r="C98" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E98">
         <v>130006</v>
@@ -11944,7 +11899,7 @@
         <v>20</v>
       </c>
       <c r="K98" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L98">
         <v>1000</v>
@@ -11976,7 +11931,7 @@
         <v>20000</v>
       </c>
       <c r="C99" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E99">
         <v>130006</v>
@@ -11997,7 +11952,7 @@
         <v>20</v>
       </c>
       <c r="K99" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L99">
         <v>1000</v>
@@ -12029,7 +11984,7 @@
         <v>20000</v>
       </c>
       <c r="C100" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E100">
         <v>130006</v>
@@ -12050,7 +12005,7 @@
         <v>20</v>
       </c>
       <c r="K100" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L100">
         <v>1000</v>
@@ -12082,7 +12037,7 @@
         <v>20000</v>
       </c>
       <c r="C101" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E101">
         <v>130006</v>
@@ -12103,7 +12058,7 @@
         <v>20</v>
       </c>
       <c r="K101" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L101">
         <v>1000</v>
@@ -12135,7 +12090,7 @@
         <v>20000</v>
       </c>
       <c r="C102" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E102">
         <v>130006</v>
@@ -12156,7 +12111,7 @@
         <v>20</v>
       </c>
       <c r="K102" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L102">
         <v>1000</v>
@@ -12188,7 +12143,7 @@
         <v>20000</v>
       </c>
       <c r="C103" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E103">
         <v>130006</v>
@@ -12209,7 +12164,7 @@
         <v>20</v>
       </c>
       <c r="K103" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L103">
         <v>1000</v>
@@ -12241,7 +12196,7 @@
         <v>20000</v>
       </c>
       <c r="C104" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E104">
         <v>130006</v>
@@ -12262,7 +12217,7 @@
         <v>20</v>
       </c>
       <c r="K104" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L104">
         <v>1000</v>
@@ -12294,7 +12249,7 @@
         <v>20000</v>
       </c>
       <c r="C105" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E105">
         <v>130006</v>
@@ -12315,7 +12270,7 @@
         <v>20</v>
       </c>
       <c r="K105" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L105">
         <v>1000</v>
@@ -12347,7 +12302,7 @@
         <v>20000</v>
       </c>
       <c r="C106" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E106">
         <v>130006</v>
@@ -12368,7 +12323,7 @@
         <v>20</v>
       </c>
       <c r="K106" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L106">
         <v>1000</v>
@@ -12651,31 +12606,31 @@
         <v>29</v>
       </c>
       <c r="E5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H5" t="s">
+        <v>34</v>
+      </c>
+      <c r="I5" t="s">
         <v>33</v>
       </c>
-      <c r="I5" t="s">
-        <v>32</v>
-      </c>
       <c r="J5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="O5" t="s">
         <v>22</v>
@@ -12695,19 +12650,19 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E6" t="s">
         <v>38</v>
       </c>
-      <c r="C6" t="s">
-        <v>39</v>
-      </c>
-      <c r="E6" t="s">
-        <v>37</v>
-      </c>
       <c r="F6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -12718,7 +12673,7 @@
         <v>10000</v>
       </c>
       <c r="C7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E7">
         <v>130001</v>
@@ -12739,7 +12694,7 @@
         <v>20</v>
       </c>
       <c r="K7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="L7">
         <v>666</v>
@@ -12757,7 +12712,7 @@
         <v>3</v>
       </c>
       <c r="R7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="S7">
         <v>666</v>
@@ -12771,7 +12726,7 @@
         <v>15000</v>
       </c>
       <c r="C8" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E8">
         <v>130004</v>
@@ -12786,7 +12741,7 @@
         <v>15</v>
       </c>
       <c r="K8" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="L8">
         <v>888</v>
@@ -12804,7 +12759,7 @@
         <v>7</v>
       </c>
       <c r="R8" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="S8">
         <v>667</v>
@@ -12818,7 +12773,7 @@
         <v>20000</v>
       </c>
       <c r="C9" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E9">
         <v>130006</v>
@@ -12839,7 +12794,7 @@
         <v>20</v>
       </c>
       <c r="K9" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L9">
         <v>1000</v>
@@ -12871,7 +12826,7 @@
         <v>20000</v>
       </c>
       <c r="C10" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E10">
         <v>130006</v>
@@ -12892,7 +12847,7 @@
         <v>20</v>
       </c>
       <c r="K10" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L10">
         <v>1000</v>
@@ -12924,7 +12879,7 @@
         <v>20000</v>
       </c>
       <c r="C11" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E11">
         <v>130006</v>
@@ -12945,7 +12900,7 @@
         <v>20</v>
       </c>
       <c r="K11" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L11">
         <v>1000</v>
@@ -12977,7 +12932,7 @@
         <v>20000</v>
       </c>
       <c r="C12" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E12">
         <v>130006</v>
@@ -12998,7 +12953,7 @@
         <v>20</v>
       </c>
       <c r="K12" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L12">
         <v>1000</v>
@@ -13030,7 +12985,7 @@
         <v>20000</v>
       </c>
       <c r="C13" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E13">
         <v>130006</v>
@@ -13051,7 +13006,7 @@
         <v>20</v>
       </c>
       <c r="K13" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L13">
         <v>1000</v>
@@ -13083,7 +13038,7 @@
         <v>20000</v>
       </c>
       <c r="C14" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E14">
         <v>130006</v>
@@ -13104,7 +13059,7 @@
         <v>20</v>
       </c>
       <c r="K14" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L14">
         <v>1000</v>
@@ -13136,7 +13091,7 @@
         <v>20000</v>
       </c>
       <c r="C15" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E15">
         <v>130006</v>
@@ -13157,7 +13112,7 @@
         <v>20</v>
       </c>
       <c r="K15" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L15">
         <v>1000</v>
@@ -13189,7 +13144,7 @@
         <v>20000</v>
       </c>
       <c r="C16" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E16">
         <v>130006</v>
@@ -13210,7 +13165,7 @@
         <v>20</v>
       </c>
       <c r="K16" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L16">
         <v>1000</v>
@@ -13242,7 +13197,7 @@
         <v>20000</v>
       </c>
       <c r="C17" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E17">
         <v>130006</v>
@@ -13263,7 +13218,7 @@
         <v>20</v>
       </c>
       <c r="K17" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L17">
         <v>1000</v>
@@ -13295,7 +13250,7 @@
         <v>20000</v>
       </c>
       <c r="C18" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E18">
         <v>130006</v>
@@ -13316,7 +13271,7 @@
         <v>20</v>
       </c>
       <c r="K18" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L18">
         <v>1000</v>
@@ -13348,7 +13303,7 @@
         <v>20000</v>
       </c>
       <c r="C19" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E19">
         <v>130006</v>
@@ -13369,7 +13324,7 @@
         <v>20</v>
       </c>
       <c r="K19" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L19">
         <v>1000</v>
@@ -13401,7 +13356,7 @@
         <v>20000</v>
       </c>
       <c r="C20" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E20">
         <v>130006</v>
@@ -13422,7 +13377,7 @@
         <v>20</v>
       </c>
       <c r="K20" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L20">
         <v>1000</v>
@@ -13454,7 +13409,7 @@
         <v>20000</v>
       </c>
       <c r="C21" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E21">
         <v>130006</v>
@@ -13475,7 +13430,7 @@
         <v>20</v>
       </c>
       <c r="K21" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L21">
         <v>1000</v>
@@ -13507,7 +13462,7 @@
         <v>20000</v>
       </c>
       <c r="C22" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E22">
         <v>130006</v>
@@ -13528,7 +13483,7 @@
         <v>20</v>
       </c>
       <c r="K22" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L22">
         <v>1000</v>
@@ -13560,7 +13515,7 @@
         <v>20000</v>
       </c>
       <c r="C23" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E23">
         <v>130006</v>
@@ -13581,7 +13536,7 @@
         <v>20</v>
       </c>
       <c r="K23" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L23">
         <v>1000</v>
@@ -13613,7 +13568,7 @@
         <v>20000</v>
       </c>
       <c r="C24" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E24">
         <v>130006</v>
@@ -13634,7 +13589,7 @@
         <v>20</v>
       </c>
       <c r="K24" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L24">
         <v>1000</v>
@@ -13666,7 +13621,7 @@
         <v>20000</v>
       </c>
       <c r="C25" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E25">
         <v>130006</v>
@@ -13687,7 +13642,7 @@
         <v>20</v>
       </c>
       <c r="K25" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L25">
         <v>1000</v>
@@ -13719,7 +13674,7 @@
         <v>20000</v>
       </c>
       <c r="C26" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E26">
         <v>130006</v>
@@ -13740,7 +13695,7 @@
         <v>20</v>
       </c>
       <c r="K26" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L26">
         <v>1000</v>
@@ -13772,7 +13727,7 @@
         <v>20000</v>
       </c>
       <c r="C27" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E27">
         <v>130006</v>
@@ -13793,7 +13748,7 @@
         <v>20</v>
       </c>
       <c r="K27" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L27">
         <v>1000</v>
@@ -13825,7 +13780,7 @@
         <v>20000</v>
       </c>
       <c r="C28" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E28">
         <v>130006</v>
@@ -13846,7 +13801,7 @@
         <v>20</v>
       </c>
       <c r="K28" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L28">
         <v>1000</v>
@@ -13878,7 +13833,7 @@
         <v>20000</v>
       </c>
       <c r="C29" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E29">
         <v>130006</v>
@@ -13899,7 +13854,7 @@
         <v>20</v>
       </c>
       <c r="K29" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L29">
         <v>1000</v>
@@ -13931,7 +13886,7 @@
         <v>20000</v>
       </c>
       <c r="C30" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E30">
         <v>130006</v>
@@ -13952,7 +13907,7 @@
         <v>20</v>
       </c>
       <c r="K30" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L30">
         <v>1000</v>
@@ -13984,7 +13939,7 @@
         <v>20000</v>
       </c>
       <c r="C31" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E31">
         <v>130006</v>
@@ -14005,7 +13960,7 @@
         <v>20</v>
       </c>
       <c r="K31" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L31">
         <v>1000</v>
@@ -14037,7 +13992,7 @@
         <v>20000</v>
       </c>
       <c r="C32" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E32">
         <v>130006</v>
@@ -14058,7 +14013,7 @@
         <v>20</v>
       </c>
       <c r="K32" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L32">
         <v>1000</v>
@@ -14090,7 +14045,7 @@
         <v>20000</v>
       </c>
       <c r="C33" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E33">
         <v>130006</v>
@@ -14111,7 +14066,7 @@
         <v>20</v>
       </c>
       <c r="K33" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L33">
         <v>1000</v>
@@ -14143,7 +14098,7 @@
         <v>20000</v>
       </c>
       <c r="C34" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E34">
         <v>130006</v>
@@ -14164,7 +14119,7 @@
         <v>20</v>
       </c>
       <c r="K34" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L34">
         <v>1000</v>
@@ -14196,7 +14151,7 @@
         <v>20000</v>
       </c>
       <c r="C35" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E35">
         <v>130006</v>
@@ -14217,7 +14172,7 @@
         <v>20</v>
       </c>
       <c r="K35" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L35">
         <v>1000</v>
@@ -14249,7 +14204,7 @@
         <v>20000</v>
       </c>
       <c r="C36" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E36">
         <v>130006</v>
@@ -14270,7 +14225,7 @@
         <v>20</v>
       </c>
       <c r="K36" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L36">
         <v>1000</v>
@@ -14302,7 +14257,7 @@
         <v>20000</v>
       </c>
       <c r="C37" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E37">
         <v>130006</v>
@@ -14323,7 +14278,7 @@
         <v>20</v>
       </c>
       <c r="K37" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L37">
         <v>1000</v>
@@ -14355,7 +14310,7 @@
         <v>20000</v>
       </c>
       <c r="C38" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E38">
         <v>130006</v>
@@ -14376,7 +14331,7 @@
         <v>20</v>
       </c>
       <c r="K38" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L38">
         <v>1000</v>
@@ -14408,7 +14363,7 @@
         <v>20000</v>
       </c>
       <c r="C39" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E39">
         <v>130006</v>
@@ -14429,7 +14384,7 @@
         <v>20</v>
       </c>
       <c r="K39" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L39">
         <v>1000</v>
@@ -14461,7 +14416,7 @@
         <v>20000</v>
       </c>
       <c r="C40" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E40">
         <v>130006</v>
@@ -14482,7 +14437,7 @@
         <v>20</v>
       </c>
       <c r="K40" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L40">
         <v>1000</v>
@@ -14514,7 +14469,7 @@
         <v>20000</v>
       </c>
       <c r="C41" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E41">
         <v>130006</v>
@@ -14535,7 +14490,7 @@
         <v>20</v>
       </c>
       <c r="K41" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L41">
         <v>1000</v>
@@ -14567,7 +14522,7 @@
         <v>20000</v>
       </c>
       <c r="C42" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E42">
         <v>130006</v>
@@ -14588,7 +14543,7 @@
         <v>20</v>
       </c>
       <c r="K42" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L42">
         <v>1000</v>
@@ -14620,7 +14575,7 @@
         <v>20000</v>
       </c>
       <c r="C43" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E43">
         <v>130006</v>
@@ -14641,7 +14596,7 @@
         <v>20</v>
       </c>
       <c r="K43" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L43">
         <v>1000</v>
@@ -14673,7 +14628,7 @@
         <v>20000</v>
       </c>
       <c r="C44" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E44">
         <v>130006</v>
@@ -14694,7 +14649,7 @@
         <v>20</v>
       </c>
       <c r="K44" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L44">
         <v>1000</v>
@@ -14726,7 +14681,7 @@
         <v>20000</v>
       </c>
       <c r="C45" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E45">
         <v>130006</v>
@@ -14747,7 +14702,7 @@
         <v>20</v>
       </c>
       <c r="K45" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L45">
         <v>1000</v>
@@ -14779,7 +14734,7 @@
         <v>20000</v>
       </c>
       <c r="C46" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E46">
         <v>130006</v>
@@ -14800,7 +14755,7 @@
         <v>20</v>
       </c>
       <c r="K46" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L46">
         <v>1000</v>
@@ -14832,7 +14787,7 @@
         <v>20000</v>
       </c>
       <c r="C47" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E47">
         <v>130006</v>
@@ -14853,7 +14808,7 @@
         <v>20</v>
       </c>
       <c r="K47" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L47">
         <v>1000</v>
@@ -14885,7 +14840,7 @@
         <v>20000</v>
       </c>
       <c r="C48" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E48">
         <v>130006</v>
@@ -14906,7 +14861,7 @@
         <v>20</v>
       </c>
       <c r="K48" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L48">
         <v>1000</v>
@@ -14938,7 +14893,7 @@
         <v>20000</v>
       </c>
       <c r="C49" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E49">
         <v>130006</v>
@@ -14959,7 +14914,7 @@
         <v>20</v>
       </c>
       <c r="K49" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L49">
         <v>1000</v>
@@ -14991,7 +14946,7 @@
         <v>20000</v>
       </c>
       <c r="C50" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E50">
         <v>130006</v>
@@ -15012,7 +14967,7 @@
         <v>20</v>
       </c>
       <c r="K50" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L50">
         <v>1000</v>
@@ -15044,7 +14999,7 @@
         <v>20000</v>
       </c>
       <c r="C51" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E51">
         <v>130006</v>
@@ -15065,7 +15020,7 @@
         <v>20</v>
       </c>
       <c r="K51" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L51">
         <v>1000</v>
@@ -15097,7 +15052,7 @@
         <v>20000</v>
       </c>
       <c r="C52" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E52">
         <v>130006</v>
@@ -15118,7 +15073,7 @@
         <v>20</v>
       </c>
       <c r="K52" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L52">
         <v>1000</v>
@@ -15150,7 +15105,7 @@
         <v>20000</v>
       </c>
       <c r="C53" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E53">
         <v>130006</v>
@@ -15171,7 +15126,7 @@
         <v>20</v>
       </c>
       <c r="K53" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L53">
         <v>1000</v>
@@ -15203,7 +15158,7 @@
         <v>20000</v>
       </c>
       <c r="C54" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E54">
         <v>130006</v>
@@ -15224,7 +15179,7 @@
         <v>20</v>
       </c>
       <c r="K54" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L54">
         <v>1000</v>
@@ -15256,7 +15211,7 @@
         <v>20000</v>
       </c>
       <c r="C55" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E55">
         <v>130006</v>
@@ -15277,7 +15232,7 @@
         <v>20</v>
       </c>
       <c r="K55" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L55">
         <v>1000</v>
@@ -15309,7 +15264,7 @@
         <v>20000</v>
       </c>
       <c r="C56" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E56">
         <v>130006</v>
@@ -15330,7 +15285,7 @@
         <v>20</v>
       </c>
       <c r="K56" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L56">
         <v>1000</v>
@@ -15362,7 +15317,7 @@
         <v>20000</v>
       </c>
       <c r="C57" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E57">
         <v>130006</v>
@@ -15383,7 +15338,7 @@
         <v>20</v>
       </c>
       <c r="K57" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L57">
         <v>1000</v>
@@ -15415,7 +15370,7 @@
         <v>20000</v>
       </c>
       <c r="C58" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E58">
         <v>130006</v>
@@ -15436,7 +15391,7 @@
         <v>20</v>
       </c>
       <c r="K58" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L58">
         <v>1000</v>
@@ -15468,7 +15423,7 @@
         <v>20000</v>
       </c>
       <c r="C59" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E59">
         <v>130006</v>
@@ -15489,7 +15444,7 @@
         <v>20</v>
       </c>
       <c r="K59" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L59">
         <v>1000</v>
@@ -15521,7 +15476,7 @@
         <v>20000</v>
       </c>
       <c r="C60" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E60">
         <v>130006</v>
@@ -15542,7 +15497,7 @@
         <v>20</v>
       </c>
       <c r="K60" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L60">
         <v>1000</v>
@@ -15574,7 +15529,7 @@
         <v>20000</v>
       </c>
       <c r="C61" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E61">
         <v>130006</v>
@@ -15595,7 +15550,7 @@
         <v>20</v>
       </c>
       <c r="K61" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L61">
         <v>1000</v>
@@ -15627,7 +15582,7 @@
         <v>20000</v>
       </c>
       <c r="C62" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E62">
         <v>130006</v>
@@ -15648,7 +15603,7 @@
         <v>20</v>
       </c>
       <c r="K62" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L62">
         <v>1000</v>
@@ -15680,7 +15635,7 @@
         <v>20000</v>
       </c>
       <c r="C63" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E63">
         <v>130006</v>
@@ -15701,7 +15656,7 @@
         <v>20</v>
       </c>
       <c r="K63" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L63">
         <v>1000</v>
@@ -15733,7 +15688,7 @@
         <v>20000</v>
       </c>
       <c r="C64" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E64">
         <v>130006</v>
@@ -15754,7 +15709,7 @@
         <v>20</v>
       </c>
       <c r="K64" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L64">
         <v>1000</v>
@@ -15786,7 +15741,7 @@
         <v>20000</v>
       </c>
       <c r="C65" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E65">
         <v>130006</v>
@@ -15807,7 +15762,7 @@
         <v>20</v>
       </c>
       <c r="K65" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L65">
         <v>1000</v>
@@ -15839,7 +15794,7 @@
         <v>20000</v>
       </c>
       <c r="C66" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E66">
         <v>130006</v>
@@ -15860,7 +15815,7 @@
         <v>20</v>
       </c>
       <c r="K66" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L66">
         <v>1000</v>
@@ -15892,7 +15847,7 @@
         <v>20000</v>
       </c>
       <c r="C67" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E67">
         <v>130006</v>
@@ -15913,7 +15868,7 @@
         <v>20</v>
       </c>
       <c r="K67" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L67">
         <v>1000</v>
@@ -15945,7 +15900,7 @@
         <v>20000</v>
       </c>
       <c r="C68" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E68">
         <v>130006</v>
@@ -15966,7 +15921,7 @@
         <v>20</v>
       </c>
       <c r="K68" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L68">
         <v>1000</v>
@@ -15998,7 +15953,7 @@
         <v>20000</v>
       </c>
       <c r="C69" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E69">
         <v>130006</v>
@@ -16019,7 +15974,7 @@
         <v>20</v>
       </c>
       <c r="K69" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L69">
         <v>1000</v>
@@ -16051,7 +16006,7 @@
         <v>20000</v>
       </c>
       <c r="C70" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E70">
         <v>130006</v>
@@ -16072,7 +16027,7 @@
         <v>20</v>
       </c>
       <c r="K70" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L70">
         <v>1000</v>
@@ -16104,7 +16059,7 @@
         <v>20000</v>
       </c>
       <c r="C71" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E71">
         <v>130006</v>
@@ -16125,7 +16080,7 @@
         <v>20</v>
       </c>
       <c r="K71" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L71">
         <v>1000</v>
@@ -16157,7 +16112,7 @@
         <v>20000</v>
       </c>
       <c r="C72" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E72">
         <v>130006</v>
@@ -16178,7 +16133,7 @@
         <v>20</v>
       </c>
       <c r="K72" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L72">
         <v>1000</v>
@@ -16210,7 +16165,7 @@
         <v>20000</v>
       </c>
       <c r="C73" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E73">
         <v>130006</v>
@@ -16231,7 +16186,7 @@
         <v>20</v>
       </c>
       <c r="K73" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L73">
         <v>1000</v>
@@ -16263,7 +16218,7 @@
         <v>20000</v>
       </c>
       <c r="C74" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E74">
         <v>130006</v>
@@ -16284,7 +16239,7 @@
         <v>20</v>
       </c>
       <c r="K74" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L74">
         <v>1000</v>
@@ -16316,7 +16271,7 @@
         <v>20000</v>
       </c>
       <c r="C75" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E75">
         <v>130006</v>
@@ -16337,7 +16292,7 @@
         <v>20</v>
       </c>
       <c r="K75" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L75">
         <v>1000</v>
@@ -16369,7 +16324,7 @@
         <v>20000</v>
       </c>
       <c r="C76" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E76">
         <v>130006</v>
@@ -16390,7 +16345,7 @@
         <v>20</v>
       </c>
       <c r="K76" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L76">
         <v>1000</v>
@@ -16422,7 +16377,7 @@
         <v>20000</v>
       </c>
       <c r="C77" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E77">
         <v>130006</v>
@@ -16443,7 +16398,7 @@
         <v>20</v>
       </c>
       <c r="K77" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L77">
         <v>1000</v>
@@ -16475,7 +16430,7 @@
         <v>20000</v>
       </c>
       <c r="C78" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E78">
         <v>130006</v>
@@ -16496,7 +16451,7 @@
         <v>20</v>
       </c>
       <c r="K78" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L78">
         <v>1000</v>
@@ -16528,7 +16483,7 @@
         <v>20000</v>
       </c>
       <c r="C79" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E79">
         <v>130006</v>
@@ -16549,7 +16504,7 @@
         <v>20</v>
       </c>
       <c r="K79" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L79">
         <v>1000</v>
@@ -16581,7 +16536,7 @@
         <v>20000</v>
       </c>
       <c r="C80" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E80">
         <v>130006</v>
@@ -16602,7 +16557,7 @@
         <v>20</v>
       </c>
       <c r="K80" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L80">
         <v>1000</v>
@@ -16634,7 +16589,7 @@
         <v>20000</v>
       </c>
       <c r="C81" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E81">
         <v>130006</v>
@@ -16655,7 +16610,7 @@
         <v>20</v>
       </c>
       <c r="K81" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L81">
         <v>1000</v>
@@ -16687,7 +16642,7 @@
         <v>20000</v>
       </c>
       <c r="C82" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E82">
         <v>130006</v>
@@ -16708,7 +16663,7 @@
         <v>20</v>
       </c>
       <c r="K82" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L82">
         <v>1000</v>
@@ -16740,7 +16695,7 @@
         <v>20000</v>
       </c>
       <c r="C83" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E83">
         <v>130006</v>
@@ -16761,7 +16716,7 @@
         <v>20</v>
       </c>
       <c r="K83" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L83">
         <v>1000</v>
@@ -16793,7 +16748,7 @@
         <v>20000</v>
       </c>
       <c r="C84" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E84">
         <v>130006</v>
@@ -16814,7 +16769,7 @@
         <v>20</v>
       </c>
       <c r="K84" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L84">
         <v>1000</v>
@@ -16846,7 +16801,7 @@
         <v>20000</v>
       </c>
       <c r="C85" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E85">
         <v>130006</v>
@@ -16867,7 +16822,7 @@
         <v>20</v>
       </c>
       <c r="K85" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L85">
         <v>1000</v>
@@ -16899,7 +16854,7 @@
         <v>20000</v>
       </c>
       <c r="C86" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E86">
         <v>130006</v>
@@ -16920,7 +16875,7 @@
         <v>20</v>
       </c>
       <c r="K86" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L86">
         <v>1000</v>
@@ -16952,7 +16907,7 @@
         <v>20000</v>
       </c>
       <c r="C87" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E87">
         <v>130006</v>
@@ -16973,7 +16928,7 @@
         <v>20</v>
       </c>
       <c r="K87" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L87">
         <v>1000</v>
@@ -17005,7 +16960,7 @@
         <v>20000</v>
       </c>
       <c r="C88" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E88">
         <v>130006</v>
@@ -17026,7 +16981,7 @@
         <v>20</v>
       </c>
       <c r="K88" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L88">
         <v>1000</v>
@@ -17058,7 +17013,7 @@
         <v>20000</v>
       </c>
       <c r="C89" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E89">
         <v>130006</v>
@@ -17079,7 +17034,7 @@
         <v>20</v>
       </c>
       <c r="K89" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L89">
         <v>1000</v>
@@ -17111,7 +17066,7 @@
         <v>20000</v>
       </c>
       <c r="C90" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E90">
         <v>130006</v>
@@ -17132,7 +17087,7 @@
         <v>20</v>
       </c>
       <c r="K90" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L90">
         <v>1000</v>
@@ -17164,7 +17119,7 @@
         <v>20000</v>
       </c>
       <c r="C91" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E91">
         <v>130006</v>
@@ -17185,7 +17140,7 @@
         <v>20</v>
       </c>
       <c r="K91" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L91">
         <v>1000</v>
@@ -17217,7 +17172,7 @@
         <v>20000</v>
       </c>
       <c r="C92" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E92">
         <v>130006</v>
@@ -17238,7 +17193,7 @@
         <v>20</v>
       </c>
       <c r="K92" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L92">
         <v>1000</v>
@@ -17270,7 +17225,7 @@
         <v>20000</v>
       </c>
       <c r="C93" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E93">
         <v>130006</v>
@@ -17291,7 +17246,7 @@
         <v>20</v>
       </c>
       <c r="K93" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L93">
         <v>1000</v>
@@ -17323,7 +17278,7 @@
         <v>20000</v>
       </c>
       <c r="C94" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E94">
         <v>130006</v>
@@ -17344,7 +17299,7 @@
         <v>20</v>
       </c>
       <c r="K94" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L94">
         <v>1000</v>
@@ -17376,7 +17331,7 @@
         <v>20000</v>
       </c>
       <c r="C95" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E95">
         <v>130006</v>
@@ -17397,7 +17352,7 @@
         <v>20</v>
       </c>
       <c r="K95" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L95">
         <v>1000</v>
@@ -17429,7 +17384,7 @@
         <v>20000</v>
       </c>
       <c r="C96" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E96">
         <v>130006</v>
@@ -17450,7 +17405,7 @@
         <v>20</v>
       </c>
       <c r="K96" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L96">
         <v>1000</v>
@@ -17482,7 +17437,7 @@
         <v>20000</v>
       </c>
       <c r="C97" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E97">
         <v>130006</v>
@@ -17503,7 +17458,7 @@
         <v>20</v>
       </c>
       <c r="K97" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L97">
         <v>1000</v>
@@ -17535,7 +17490,7 @@
         <v>20000</v>
       </c>
       <c r="C98" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E98">
         <v>130006</v>
@@ -17556,7 +17511,7 @@
         <v>20</v>
       </c>
       <c r="K98" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L98">
         <v>1000</v>
@@ -17588,7 +17543,7 @@
         <v>20000</v>
       </c>
       <c r="C99" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E99">
         <v>130006</v>
@@ -17609,7 +17564,7 @@
         <v>20</v>
       </c>
       <c r="K99" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L99">
         <v>1000</v>
@@ -17641,7 +17596,7 @@
         <v>20000</v>
       </c>
       <c r="C100" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E100">
         <v>130006</v>
@@ -17662,7 +17617,7 @@
         <v>20</v>
       </c>
       <c r="K100" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L100">
         <v>1000</v>
@@ -17694,7 +17649,7 @@
         <v>20000</v>
       </c>
       <c r="C101" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E101">
         <v>130006</v>
@@ -17715,7 +17670,7 @@
         <v>20</v>
       </c>
       <c r="K101" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L101">
         <v>1000</v>
@@ -17747,7 +17702,7 @@
         <v>20000</v>
       </c>
       <c r="C102" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E102">
         <v>130006</v>
@@ -17768,7 +17723,7 @@
         <v>20</v>
       </c>
       <c r="K102" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L102">
         <v>1000</v>
@@ -17800,7 +17755,7 @@
         <v>20000</v>
       </c>
       <c r="C103" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E103">
         <v>130006</v>
@@ -17821,7 +17776,7 @@
         <v>20</v>
       </c>
       <c r="K103" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L103">
         <v>1000</v>
@@ -17853,7 +17808,7 @@
         <v>20000</v>
       </c>
       <c r="C104" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E104">
         <v>130006</v>
@@ -17874,7 +17829,7 @@
         <v>20</v>
       </c>
       <c r="K104" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L104">
         <v>1000</v>
@@ -17906,7 +17861,7 @@
         <v>20000</v>
       </c>
       <c r="C105" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E105">
         <v>130006</v>
@@ -17927,7 +17882,7 @@
         <v>20</v>
       </c>
       <c r="K105" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L105">
         <v>1000</v>
@@ -17959,7 +17914,7 @@
         <v>20000</v>
       </c>
       <c r="C106" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E106">
         <v>130006</v>
@@ -17980,7 +17935,7 @@
         <v>20</v>
       </c>
       <c r="K106" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L106">
         <v>1000</v>
